--- a/Absensi dan Keaktifan/Absensi dan Keaktifan_DS-02-01.xlsx
+++ b/Absensi dan Keaktifan/Absensi dan Keaktifan_DS-02-01.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Absensi" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Keaktifan" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Absensi" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Keaktifan" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="47">
-  <si>
-    <t xml:space="preserve">ABSENSI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>ABSENSI</t>
   </si>
   <si>
     <t xml:space="preserve">Week 1</t>
@@ -71,13 +65,13 @@
     <t xml:space="preserve">ARYASATYA BIMAKARA</t>
   </si>
   <si>
-    <t xml:space="preserve">LIBUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTS</t>
+    <t>LIBUR</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>UTS</t>
   </si>
   <si>
     <t xml:space="preserve">FERDYAN PASKAH DYKA WAHYUDI</t>
@@ -86,7 +80,7 @@
     <t xml:space="preserve">GARUDO PUJI SANDIYUDHO</t>
   </si>
   <si>
-    <t xml:space="preserve">SAKIT</t>
+    <t>SAKIT</t>
   </si>
   <si>
     <t xml:space="preserve">HEYCHANDA ELNISA DYHAWA</t>
@@ -107,7 +101,7 @@
     <t xml:space="preserve">MUHAMMAD FIRMAN ARDIANSYAH</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
+    <t>s</t>
   </si>
   <si>
     <t xml:space="preserve">MUHAMMAD SAYYID IMADUDDIN</t>
@@ -131,7 +125,7 @@
     <t xml:space="preserve">SAFINAH SALMAA AL ANSHORY</t>
   </si>
   <si>
-    <t xml:space="preserve">IZIN</t>
+    <t>IZIN</t>
   </si>
   <si>
     <t xml:space="preserve">SALSABILA FELDA ARDELIYA</t>
@@ -152,56 +146,37 @@
     <t xml:space="preserve">VIVI INDAH RAHMAWATI</t>
   </si>
   <si>
-    <t xml:space="preserve">Nama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vvvv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vvv</t>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>vv</t>
+  </si>
+  <si>
+    <t>vvvv</t>
+  </si>
+  <si>
+    <t>vvv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
+      <b/>
+      <color indexed="65"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -214,19 +189,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0504D"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor indexed="25"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="8">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFC0504D"/>
       </left>
@@ -237,7 +212,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -246,7 +221,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFC0504D"/>
       </left>
@@ -255,7 +230,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFC0504D"/>
@@ -264,7 +239,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFC0504D"/>
       </left>
@@ -275,7 +250,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -284,7 +259,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFC0504D"/>
@@ -296,169 +271,514 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="14">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="2" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FFC0504D"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill/>
+        <a:solidFill/>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.88"/>
+    <col customWidth="1" min="1" max="1" style="1" width="36.880000000000003"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -506,7 +826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="13.800000000000001">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -546,11 +866,13 @@
       <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" ht="13.800000000000001">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -590,11 +912,13 @@
       <c r="M3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" ht="13.800000000000001">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -634,11 +958,13 @@
       <c r="M4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" ht="13.800000000000001">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -678,11 +1004,13 @@
       <c r="M5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" ht="13.800000000000001">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -722,11 +1050,13 @@
       <c r="M6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" ht="13.800000000000001">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -752,9 +1082,9 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" ht="13.800000000000001">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -794,11 +1124,13 @@
       <c r="M8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" ht="13.800000000000001">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -838,11 +1170,13 @@
       <c r="M9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O9" s="5"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" ht="13.800000000000001">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -880,13 +1214,15 @@
       <c r="M10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O10" s="5"/>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="13.800000000000001">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -926,11 +1262,13 @@
       <c r="M11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O11" s="5"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" ht="13.800000000000001">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -970,11 +1308,13 @@
       <c r="M12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O12" s="5"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" ht="13.800000000000001">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1012,11 +1352,13 @@
       <c r="M13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="O13" s="5"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" ht="13.800000000000001">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1056,11 +1398,13 @@
       <c r="M14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O14" s="5"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" ht="13.800000000000001">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1100,11 +1444,13 @@
       <c r="M15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="5"/>
+      <c r="N15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O15" s="5"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" ht="13.800000000000001">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1144,11 +1490,13 @@
       <c r="M16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="N16" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O16" s="5"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" ht="13.800000000000001">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1188,11 +1536,13 @@
       <c r="M17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="5"/>
+      <c r="N17" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O17" s="5"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" ht="13.800000000000001">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1232,11 +1582,13 @@
       <c r="M18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="5"/>
+      <c r="N18" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O18" s="5"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" ht="13.800000000000001">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1276,11 +1628,13 @@
       <c r="M19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="N19" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O19" s="5"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" ht="13.800000000000001">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1320,11 +1674,13 @@
       <c r="M20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="5"/>
+      <c r="N20" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O20" s="5"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" ht="13.800000000000001">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -1364,11 +1720,13 @@
       <c r="M21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="5"/>
+      <c r="N21" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O21" s="5"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" ht="13.800000000000001">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1408,24 +1766,26 @@
       <c r="M22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="5"/>
+      <c r="N22" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="O22" s="5"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" ht="13.800000000000001">
+      <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -1446,44 +1806,43 @@
       <c r="K23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="11" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
+      <c r="N23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.51"/>
+    <col customWidth="1" min="1" max="1" style="1" width="39.509999999999998"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +1890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="15">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1569,9 +1928,9 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" ht="15">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1603,9 +1962,9 @@
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" ht="15">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1637,9 +1996,9 @@
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" ht="15">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1675,9 +2034,9 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" ht="15">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1717,11 +2076,13 @@
       <c r="M6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" ht="15">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1747,9 +2108,9 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" ht="15">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1787,9 +2148,9 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" ht="15">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1821,9 +2182,9 @@
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" ht="15">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1853,9 +2214,9 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" ht="15">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -1895,9 +2256,9 @@
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" ht="15">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1933,9 +2294,9 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" ht="15">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1965,9 +2326,9 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" ht="15">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1999,9 +2360,9 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" ht="15">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -2037,9 +2398,9 @@
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" ht="15">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -2075,9 +2436,9 @@
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" ht="15">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -2115,9 +2476,9 @@
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" ht="15">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -2151,9 +2512,9 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" ht="15">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -2189,9 +2550,9 @@
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" ht="15">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -2229,9 +2590,9 @@
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" ht="15">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -2261,9 +2622,9 @@
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" ht="15">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -2297,26 +2658,26 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" ht="15">
+      <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="C23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="5" t="s">
         <v>16</v>
       </c>
@@ -2326,26 +2687,23 @@
       <c r="J23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
+      <c r="K23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>